--- a/elo/knapsack/fantasydf_all.xlsx
+++ b/elo/knapsack/fantasydf_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -31,31 +31,40 @@
     <t>elo</t>
   </si>
   <si>
+    <t>points</t>
+  </si>
+  <si>
     <t>place</t>
   </si>
   <si>
-    <t>pursuit</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
     <t>Artem MALTSEV</t>
   </si>
   <si>
-    <t>Evgeniy BELOV</t>
-  </si>
-  <si>
-    <t>Andrey MELNICHENKO</t>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Federico PELLEGRINO</t>
+  </si>
+  <si>
+    <t>Calle HALFVARSSON</t>
+  </si>
+  <si>
+    <t>Francesco DE FABIANI</t>
   </si>
   <si>
     <t>Alexey CHERVOTKIN</t>
@@ -64,160 +73,148 @@
     <t>Maurice MANIFICAT</t>
   </si>
   <si>
+    <t>Clement PARISSE</t>
+  </si>
+  <si>
+    <t>Jean Marc GAILLARD</t>
+  </si>
+  <si>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
+  </si>
+  <si>
     <t>Hugo LAPALUS</t>
   </si>
   <si>
-    <t>Lucas BOEGL</t>
-  </si>
-  <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
-  </si>
-  <si>
-    <t>Andrew MUSGRAVE</t>
+    <t>Oskar SVENSSON</t>
+  </si>
+  <si>
+    <t>Alexander TERENTEV</t>
+  </si>
+  <si>
+    <t>Jules LAPIERRE</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
+  </si>
+  <si>
+    <t>Adrien BACKSCHEIDER</t>
   </si>
   <si>
     <t>Florian NOTZ</t>
   </si>
   <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
+    <t>Richard JOUVE</t>
+  </si>
+  <si>
+    <t>William POROMAA</t>
   </si>
   <si>
     <t>Jonas DOBLER</t>
   </si>
   <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Janosch BRUGGER</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
+    <t>Gleb RETIVYKH</t>
   </si>
   <si>
     <t>Gus SCHUMACHER</t>
   </si>
   <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Jean Marc GAILLARD</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
-    <t>Markus VUORELA</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>Michal NOVAK</t>
+    <t>Ireneu ESTEVE ALTIMIRAS</t>
+  </si>
+  <si>
+    <t>Beda KLEE</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
   </si>
   <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
+  </si>
+  <si>
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Ebba ANDERSSON</t>
-  </si>
-  <si>
     <t>Krista PARMAKOSKI</t>
   </si>
   <si>
+    <t>Frida KARLSSON</t>
+  </si>
+  <si>
+    <t>Anamarija LAMPIC</t>
+  </si>
+  <si>
     <t>Yulia STUPAK</t>
   </si>
   <si>
-    <t>Frida KARLSSON</t>
+    <t>Nadine FAEHNDRICH</t>
+  </si>
+  <si>
+    <t>Jonna SUNDLING</t>
+  </si>
+  <si>
+    <t>Linn SVAHN</t>
+  </si>
+  <si>
+    <t>Maja DAHLQVIST</t>
+  </si>
+  <si>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
   </si>
   <si>
     <t>Tatiana SORINA</t>
   </si>
   <si>
-    <t>Teresa STADLOBER</t>
+    <t>Katerina RAZYMOVA</t>
+  </si>
+  <si>
+    <t>Moa LUNDGREN</t>
+  </si>
+  <si>
+    <t>Hailey SWIRBUL</t>
   </si>
   <si>
     <t>Delphine CLAUDEL</t>
   </si>
   <si>
-    <t>Katerina RAZYMOVA</t>
-  </si>
-  <si>
-    <t>Katharina HENNIG</t>
-  </si>
-  <si>
     <t>Alisa ZHAMBALOVA</t>
   </si>
   <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
     <t>Anna COMARELLA</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
   </si>
   <si>
     <t>Lucia SCARDONI</t>
   </si>
   <si>
-    <t>Yana KIRPICHENKO</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
+    <t>Laurien VAN DER GRAAFF</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
   </si>
   <si>
     <t>Anna NECHAEVSKAYA</t>
   </si>
   <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Jonna SUNDLING</t>
-  </si>
-  <si>
     <t>Patricija EIDUKA</t>
   </si>
   <si>
-    <t>Katharine OGDEN</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Julia KERN</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Linn SVAHN</t>
+    <t>Pia FINK</t>
   </si>
   <si>
     <t>m</t>
@@ -581,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,16 +606,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>3482277</v>
@@ -627,445 +621,400 @@
         <v>22366</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>1757.802803159329</v>
+        <v>1762.407541767062</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3482280</v>
+        <v>3481803</v>
       </c>
       <c r="D3">
-        <v>2646</v>
+        <v>7488</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>1565.289756910993</v>
+        <v>1611.657928517645</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D4">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>1578.182075226722</v>
+        <v>1600.268745171146</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3481432</v>
+        <v>3482105</v>
       </c>
       <c r="D5">
-        <v>4522</v>
+        <v>5172</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>1565.199660892744</v>
+        <v>1589.607843160566</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3481161</v>
+        <v>3482280</v>
       </c>
       <c r="D6">
-        <v>3443</v>
+        <v>2646</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>1590.385993923709</v>
+        <v>1573.22446616979</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3481803</v>
+        <v>3481432</v>
       </c>
       <c r="D7">
-        <v>7488</v>
+        <v>4522</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>1604.230867520169</v>
+        <v>1572.289769316676</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>3482119</v>
+        <v>3510023</v>
       </c>
       <c r="D8">
-        <v>4000</v>
+        <v>4296</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>1481.535319332624</v>
+        <v>1554.846567051756</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3190111</v>
+        <v>3290326</v>
       </c>
       <c r="D9">
-        <v>1450</v>
+        <v>11514</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>1478.531405980336</v>
+        <v>1539.280450837053</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>3190529</v>
+        <v>3500664</v>
       </c>
       <c r="D10">
-        <v>471</v>
+        <v>2131</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
-        <v>1431.844723240883</v>
+        <v>1529.634071377644</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3200205</v>
+        <v>3290379</v>
       </c>
       <c r="D11">
-        <v>1319</v>
+        <v>3407</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>1444.973385214943</v>
+        <v>1509.023401896277</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12">
-        <v>3510023</v>
+        <v>3482119</v>
       </c>
       <c r="D12">
-        <v>4296</v>
+        <v>4000</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>1554.77283104779</v>
+        <v>1497.552883873469</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>3190302</v>
+        <v>3190111</v>
       </c>
       <c r="D13">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>1480.59806316819</v>
+        <v>1493.063934629627</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>3190302</v>
+      </c>
+      <c r="D14">
+        <v>1470</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>1489.88259883317</v>
+      </c>
+      <c r="G14">
         <v>20</v>
-      </c>
-      <c r="C14">
-        <v>3220002</v>
-      </c>
-      <c r="D14">
-        <v>5122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>1485.316911117051</v>
-      </c>
-      <c r="G14">
-        <v>17</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
-      <c r="I14">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
       <c r="C15">
-        <v>3200376</v>
+        <v>1345875</v>
       </c>
       <c r="D15">
-        <v>753</v>
+        <v>900</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>1410.857302706522</v>
+        <v>1475.515417603184</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>3500664</v>
+        <v>3481988</v>
       </c>
       <c r="D16">
-        <v>2131</v>
+        <v>1838</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>1532.3934435168</v>
+        <v>1469.963803921009</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>3482806</v>
+        <v>3200205</v>
       </c>
       <c r="D17">
-        <v>1099</v>
+        <v>1319</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>1433.103521138784</v>
+        <v>1458.563486519643</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1073,422 +1022,377 @@
       <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>3200356</v>
+        <v>3190529</v>
       </c>
       <c r="D18">
-        <v>579</v>
+        <v>471</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>1399.314363940631</v>
+        <v>1445.568883620682</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3290379</v>
+        <v>3501255</v>
       </c>
       <c r="D19">
-        <v>3407</v>
+        <v>978</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19">
-        <v>1504.839512966392</v>
+        <v>1445.267844811846</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>3501255</v>
+        <v>3482806</v>
       </c>
       <c r="D20">
-        <v>978</v>
+        <v>1099</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>1439.790480001731</v>
+        <v>1444.182904590368</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>3200676</v>
+        <v>3190398</v>
       </c>
       <c r="D21">
-        <v>225</v>
+        <v>585</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>1339.825504564314</v>
+        <v>1434.854353946829</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>3290326</v>
+        <v>3150570</v>
       </c>
       <c r="D22">
-        <v>11514</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>1539.978510971672</v>
+        <v>1434.512274322922</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>3530882</v>
+        <v>3190268</v>
       </c>
       <c r="D23">
-        <v>592</v>
+        <v>861</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>1389.130860262605</v>
+        <v>1426.241210647655</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>3481988</v>
+        <v>3200376</v>
       </c>
       <c r="D24">
-        <v>1838</v>
+        <v>753</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>1456.368667310307</v>
+        <v>1424.471727965369</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>1345875</v>
+        <v>3190345</v>
       </c>
       <c r="D25">
-        <v>900</v>
+        <v>6443</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>1475.192904434326</v>
+        <v>1420.320006275942</v>
       </c>
       <c r="G25">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>3290407</v>
+        <v>3501741</v>
       </c>
       <c r="D26">
-        <v>432</v>
+        <v>990</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26">
-        <v>1388.280293480351</v>
+        <v>1414.892426793159</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>3190398</v>
+        <v>3200356</v>
       </c>
       <c r="D27">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>1435.884020128953</v>
+        <v>1409.558961750908</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>3501741</v>
+        <v>3481163</v>
       </c>
       <c r="D28">
-        <v>990</v>
+        <v>7637</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>1407.84885330676</v>
+        <v>1407.378312279438</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>3181007</v>
+        <v>3530882</v>
       </c>
       <c r="D29">
-        <v>233</v>
+        <v>592</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29">
-        <v>1356.440724774247</v>
+        <v>1402.703281836154</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>3190268</v>
+        <v>3020003</v>
       </c>
       <c r="D30">
-        <v>861</v>
+        <v>577</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30">
-        <v>1427.488449444785</v>
+        <v>1401.962933306775</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>3150570</v>
+        <v>3510534</v>
       </c>
       <c r="D31">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
-        <v>1439.189928768285</v>
+        <v>1397.623988038374</v>
       </c>
       <c r="G31">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>3535410</v>
@@ -1497,56 +1401,50 @@
         <v>12712</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>1632.011828711636</v>
+        <v>1638.386312076291</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>3535316</v>
+        <v>3486010</v>
       </c>
       <c r="D33">
-        <v>10007</v>
+        <v>16746</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <v>1609.054529576819</v>
+        <v>1638.282258980542</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>3505990</v>
@@ -1555,85 +1453,76 @@
         <v>15649</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34">
-        <v>1619.394083554075</v>
+        <v>1627.136485513242</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>3185256</v>
+        <v>3535316</v>
       </c>
       <c r="D35">
-        <v>5201</v>
+        <v>10007</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35">
-        <v>1593.965309676939</v>
+        <v>1615.535946530123</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>3486239</v>
+        <v>3185256</v>
       </c>
       <c r="D36">
-        <v>7809</v>
+        <v>5201</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36">
-        <v>1549.522614214672</v>
+        <v>1600.260567787211</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
-      <c r="I36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>3506154</v>
@@ -1642,329 +1531,296 @@
         <v>13508</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37">
-        <v>1594.606520415324</v>
+        <v>1594.073018325961</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
-      <c r="I37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>3485933</v>
+        <v>3565062</v>
       </c>
       <c r="D38">
-        <v>7690</v>
+        <v>12607</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38">
-        <v>1490.240592258493</v>
+        <v>1579.260665183534</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>7</v>
       </c>
-      <c r="I38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>3055067</v>
+        <v>3486239</v>
       </c>
       <c r="D39">
-        <v>6614</v>
+        <v>7809</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39">
-        <v>1501.728567118682</v>
+        <v>1561.324551835571</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>8</v>
       </c>
-      <c r="I39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>3195219</v>
+        <v>3515221</v>
       </c>
       <c r="D40">
-        <v>965</v>
+        <v>10716</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40">
-        <v>1413.572935480338</v>
+        <v>1548.607494119714</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H40">
         <v>9</v>
       </c>
-      <c r="I40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>3155314</v>
+        <v>3505809</v>
       </c>
       <c r="D41">
-        <v>1975</v>
+        <v>4518</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41">
-        <v>1470.834843077536</v>
+        <v>1542.87561133773</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>3205460</v>
+        <v>3506166</v>
       </c>
       <c r="D42">
-        <v>4757</v>
+        <v>4946</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42">
-        <v>1504.174711700208</v>
+        <v>1528.320162859418</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
-      <c r="I42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>3485862</v>
+        <v>3505800</v>
       </c>
       <c r="D43">
-        <v>1015</v>
+        <v>4816</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43">
-        <v>1402.083450992865</v>
+        <v>1516.54748378703</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>12</v>
       </c>
-      <c r="I43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>3505800</v>
+        <v>3205460</v>
       </c>
       <c r="D44">
-        <v>4816</v>
+        <v>4757</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44">
-        <v>1518.451159358082</v>
+        <v>1512.382745482887</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44">
         <v>13</v>
       </c>
-      <c r="I44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>3295322</v>
+        <v>3055067</v>
       </c>
       <c r="D45">
-        <v>429</v>
+        <v>6614</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45">
-        <v>1392.078058449184</v>
+        <v>1506.6687805478</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>14</v>
       </c>
-      <c r="I45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>3486010</v>
+        <v>3506008</v>
       </c>
       <c r="D46">
-        <v>16746</v>
+        <v>2750</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46">
-        <v>1638.100610135949</v>
+        <v>1503.69438028113</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>15</v>
       </c>
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>3565062</v>
+        <v>3485933</v>
       </c>
       <c r="D47">
-        <v>12607</v>
+        <v>7690</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47">
-        <v>1579.976044399283</v>
+        <v>1500.907657811902</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>16</v>
       </c>
-      <c r="I47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>3295157</v>
+        <v>3155314</v>
       </c>
       <c r="D48">
-        <v>2630</v>
+        <v>1975</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48">
-        <v>1377.897249533675</v>
+        <v>1480.031557404967</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1972,385 +1828,343 @@
       <c r="H48">
         <v>17</v>
       </c>
-      <c r="I48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>3486314</v>
+        <v>3506079</v>
       </c>
       <c r="D49">
-        <v>730</v>
+        <v>1793</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49">
-        <v>1379.214188813096</v>
+        <v>1432.488260185725</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>18</v>
       </c>
-      <c r="I49">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>3515221</v>
+        <v>3535602</v>
       </c>
       <c r="D50">
-        <v>10716</v>
+        <v>1197</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50">
-        <v>1549.557282925247</v>
+        <v>1424.481444102681</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>19</v>
       </c>
-      <c r="I50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>3535602</v>
+        <v>3195219</v>
       </c>
       <c r="D51">
-        <v>1197</v>
+        <v>965</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51">
-        <v>1423.62684167032</v>
+        <v>1418.413824702284</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>20</v>
       </c>
-      <c r="I51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>3485849</v>
+        <v>3485862</v>
       </c>
       <c r="D52">
-        <v>454</v>
+        <v>1015</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52">
-        <v>1353.472368323179</v>
+        <v>1416.946282805947</v>
       </c>
       <c r="G52">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>21</v>
       </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>3506008</v>
+        <v>3295322</v>
       </c>
       <c r="D53">
-        <v>2750</v>
+        <v>429</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53">
-        <v>1510.26326905837</v>
+        <v>1399.026819754084</v>
       </c>
       <c r="G53">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>22</v>
       </c>
-      <c r="I53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>3505809</v>
+        <v>3185579</v>
       </c>
       <c r="D54">
-        <v>4518</v>
+        <v>622</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54">
-        <v>1555.152403540227</v>
+        <v>1397.062595910176</v>
       </c>
       <c r="G54">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>23</v>
       </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>3555052</v>
+        <v>3486314</v>
       </c>
       <c r="D55">
-        <v>368</v>
+        <v>730</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55">
-        <v>1345.46479671282</v>
+        <v>1392.015976175154</v>
       </c>
       <c r="G55">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H55">
         <v>24</v>
       </c>
-      <c r="I55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>3535601</v>
+        <v>3295157</v>
       </c>
       <c r="D56">
-        <v>217</v>
+        <v>2630</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56">
-        <v>1279.468149169433</v>
+        <v>1382.276047241759</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>25</v>
       </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>3185579</v>
+        <v>3515087</v>
       </c>
       <c r="D57">
-        <v>622</v>
+        <v>5041</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57">
-        <v>1388.185893022643</v>
+        <v>1364.105987168586</v>
       </c>
       <c r="G57">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H57">
         <v>26</v>
       </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>3535562</v>
+        <v>3486563</v>
       </c>
       <c r="D58">
-        <v>2809</v>
+        <v>540</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58">
-        <v>1348.574250070094</v>
+        <v>1359.045831376587</v>
       </c>
       <c r="G58">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H58">
         <v>27</v>
       </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>3486563</v>
+        <v>3485849</v>
       </c>
       <c r="D59">
-        <v>540</v>
+        <v>454</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59">
-        <v>1355.937655627172</v>
+        <v>1353.323400615119</v>
       </c>
       <c r="G59">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>28</v>
       </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>3435197</v>
+        <v>3555052</v>
       </c>
       <c r="D60">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60">
-        <v>1283.563802454237</v>
+        <v>1347.478396827793</v>
       </c>
       <c r="G60">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>29</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>3506166</v>
+        <v>3205407</v>
       </c>
       <c r="D61">
-        <v>4946</v>
+        <v>328</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61">
-        <v>1534.456601127031</v>
+        <v>1339.96624374647</v>
       </c>
       <c r="G61">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>30</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/elo/knapsack/fantasydf_all.xlsx
+++ b/elo/knapsack/fantasydf_all.xlsx
@@ -43,27 +43,24 @@
     <t>Andrey MELNICHENKO</t>
   </si>
   <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
     <t>Evgeniy BELOV</t>
   </si>
   <si>
-    <t>Ivan YAKIMUSHKIN</t>
+    <t>Artem MALTSEV</t>
   </si>
   <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
-    <t>Artem MALTSEV</t>
-  </si>
-  <si>
     <t>Dario COLOGNA</t>
   </si>
   <si>
     <t>Federico PELLEGRINO</t>
   </si>
   <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
     <t>Francesco DE FABIANI</t>
   </si>
   <si>
@@ -73,84 +70,84 @@
     <t>Maurice MANIFICAT</t>
   </si>
   <si>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Oskar SVENSSON</t>
+  </si>
+  <si>
     <t>Clement PARISSE</t>
   </si>
   <si>
+    <t>Alexander TERENTEV</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
+  </si>
+  <si>
+    <t>Hugo LAPALUS</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
+  </si>
+  <si>
     <t>Jean Marc GAILLARD</t>
   </si>
   <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Lucas BOEGL</t>
-  </si>
-  <si>
-    <t>Hugo LAPALUS</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
+    <t>Adrien BACKSCHEIDER</t>
+  </si>
+  <si>
+    <t>Gus SCHUMACHER</t>
   </si>
   <si>
     <t>Jules LAPIERRE</t>
   </si>
   <si>
-    <t>Michal NOVAK</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
     <t>Florian NOTZ</t>
   </si>
   <si>
+    <t>Gleb RETIVYKH</t>
+  </si>
+  <si>
+    <t>William POROMAA</t>
+  </si>
+  <si>
+    <t>Roman FURGER</t>
+  </si>
+  <si>
     <t>Richard JOUVE</t>
   </si>
   <si>
-    <t>William POROMAA</t>
+    <t>Beda KLEE</t>
   </si>
   <si>
     <t>Jonas DOBLER</t>
   </si>
   <si>
-    <t>Gleb RETIVYKH</t>
-  </si>
-  <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>Ireneu ESTEVE ALTIMIRAS</t>
-  </si>
-  <si>
-    <t>Beda KLEE</t>
+    <t>Markus VUORELA</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
     <t>Ebba ANDERSSON</t>
   </si>
   <si>
+    <t>Krista PARMAKOSKI</t>
+  </si>
+  <si>
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Krista PARMAKOSKI</t>
-  </si>
-  <si>
-    <t>Frida KARLSSON</t>
+    <t>Yulia STUPAK</t>
   </si>
   <si>
     <t>Anamarija LAMPIC</t>
   </si>
   <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
     <t>Nadine FAEHNDRICH</t>
   </si>
   <si>
@@ -166,46 +163,49 @@
     <t>Katharina HENNIG</t>
   </si>
   <si>
+    <t>Emma RIBOM</t>
+  </si>
+  <si>
+    <t>Tatiana SORINA</t>
+  </si>
+  <si>
     <t>Teresa STADLOBER</t>
   </si>
   <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Tatiana SORINA</t>
-  </si>
-  <si>
     <t>Katerina RAZYMOVA</t>
   </si>
   <si>
     <t>Moa LUNDGREN</t>
   </si>
   <si>
+    <t>Alisa ZHAMBALOVA</t>
+  </si>
+  <si>
     <t>Hailey SWIRBUL</t>
   </si>
   <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
     <t>Delphine CLAUDEL</t>
   </si>
   <si>
-    <t>Alisa ZHAMBALOVA</t>
+    <t>Yana KIRPICHENKO</t>
   </si>
   <si>
     <t>Anna COMARELLA</t>
   </si>
   <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
-  </si>
-  <si>
     <t>Lucia SCARDONI</t>
   </si>
   <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
     <t>Laurien VAN DER GRAAFF</t>
   </si>
   <si>
-    <t>Hristina MATSOKINA</t>
+    <t>Pia FINK</t>
   </si>
   <si>
     <t>Anna NECHAEVSKAYA</t>
@@ -214,7 +214,7 @@
     <t>Patricija EIDUKA</t>
   </si>
   <si>
-    <t>Pia FINK</t>
+    <t>Julia KERN</t>
   </si>
   <si>
     <t>m</t>
@@ -624,7 +624,7 @@
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1762.407541767062</v>
+        <v>1768.873894561527</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -650,7 +650,7 @@
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1611.657928517645</v>
+        <v>1616.968393607691</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -661,22 +661,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3481161</v>
+        <v>3482105</v>
       </c>
       <c r="D4">
-        <v>3443</v>
+        <v>5172</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1600.268745171146</v>
+        <v>1596.911861896362</v>
       </c>
       <c r="G4">
         <v>43</v>
@@ -687,22 +687,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D5">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1589.607843160566</v>
+        <v>1590.343972443174</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -719,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3482280</v>
+        <v>3481432</v>
       </c>
       <c r="D6">
-        <v>2646</v>
+        <v>4522</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1573.22446616979</v>
+        <v>1569.5523994934</v>
       </c>
       <c r="G6">
         <v>37</v>
@@ -739,22 +739,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3481432</v>
+        <v>3482280</v>
       </c>
       <c r="D7">
-        <v>4522</v>
+        <v>2646</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1572.289769316676</v>
+        <v>1551.370738532669</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -780,7 +780,7 @@
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1554.846567051756</v>
+        <v>1545.604033343625</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -806,7 +806,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1539.280450837053</v>
+        <v>1534.609207097928</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -817,22 +817,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3500664</v>
+        <v>3290379</v>
       </c>
       <c r="D10">
-        <v>2131</v>
+        <v>3407</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1529.634071377644</v>
+        <v>1523.959307653597</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -843,22 +843,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3290379</v>
+        <v>3482119</v>
       </c>
       <c r="D11">
-        <v>3407</v>
+        <v>4000</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1509.023401896277</v>
+        <v>1510.483866018832</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -869,22 +869,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3482119</v>
+        <v>3190111</v>
       </c>
       <c r="D12">
-        <v>4000</v>
+        <v>1450</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1497.552883873469</v>
+        <v>1505.191181979154</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -895,22 +895,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3190111</v>
+        <v>3481988</v>
       </c>
       <c r="D13">
-        <v>1450</v>
+        <v>1838</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1493.063934629627</v>
+        <v>1493.928063126499</v>
       </c>
       <c r="G13">
         <v>22</v>
@@ -921,22 +921,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3190302</v>
+        <v>3501255</v>
       </c>
       <c r="D14">
-        <v>1470</v>
+        <v>978</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1489.88259883317</v>
+        <v>1471.214075872092</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -947,22 +947,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>1345875</v>
+        <v>3190302</v>
       </c>
       <c r="D15">
-        <v>900</v>
+        <v>1470</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1475.515417603184</v>
+        <v>1470.725170007535</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3481988</v>
+        <v>3482806</v>
       </c>
       <c r="D16">
-        <v>1838</v>
+        <v>1099</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1469.963803921009</v>
+        <v>1443.61267868069</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -999,22 +999,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3200205</v>
+        <v>3150570</v>
       </c>
       <c r="D17">
-        <v>1319</v>
+        <v>316</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1458.563486519643</v>
+        <v>1439.209061126639</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1445.568883620682</v>
+        <v>1436.737871990727</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3501255</v>
+        <v>3200205</v>
       </c>
       <c r="D19">
-        <v>978</v>
+        <v>1319</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1445.267844811846</v>
+        <v>1436.063425048328</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3482806</v>
+        <v>1345875</v>
       </c>
       <c r="D20">
-        <v>1099</v>
+        <v>900</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1444.182904590368</v>
+        <v>1426.499788433935</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3190398</v>
+        <v>3190268</v>
       </c>
       <c r="D21">
-        <v>585</v>
+        <v>861</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1434.854353946829</v>
+        <v>1425.026575850253</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3150570</v>
+        <v>3530882</v>
       </c>
       <c r="D22">
-        <v>316</v>
+        <v>592</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1434.512274322922</v>
+        <v>1420.096904151095</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1155,22 +1155,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3190268</v>
+        <v>3190398</v>
       </c>
       <c r="D23">
-        <v>861</v>
+        <v>585</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1426.241210647655</v>
+        <v>1414.400029956007</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1196,7 +1196,7 @@
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1424.471727965369</v>
+        <v>1413.852945982017</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1207,22 +1207,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3190345</v>
+        <v>3481163</v>
       </c>
       <c r="D25">
-        <v>6443</v>
+        <v>7637</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1420.320006275942</v>
+        <v>1411.132243797454</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1248,7 +1248,7 @@
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1414.892426793159</v>
+        <v>1410.767541399342</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1259,22 +1259,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3200356</v>
+        <v>3510351</v>
       </c>
       <c r="D27">
-        <v>579</v>
+        <v>1000</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1409.558961750908</v>
+        <v>1404.282531198954</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3481163</v>
+        <v>3190345</v>
       </c>
       <c r="D28">
-        <v>7637</v>
+        <v>6443</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1407.378312279438</v>
+        <v>1401.839047392154</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1317,16 +1317,16 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3530882</v>
+        <v>3510534</v>
       </c>
       <c r="D29">
-        <v>592</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1402.703281836154</v>
+        <v>1399.010394829652</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1337,22 +1337,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3020003</v>
+        <v>3200356</v>
       </c>
       <c r="D30">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1401.962933306775</v>
+        <v>1394.617958943329</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1363,22 +1363,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3510534</v>
+        <v>3181007</v>
       </c>
       <c r="D31">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1397.623988038374</v>
+        <v>1394.469580834827</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3535410</v>
+        <v>3486010</v>
       </c>
       <c r="D32">
-        <v>12712</v>
+        <v>16746</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1638.386312076291</v>
+        <v>1650.259276094773</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1415,22 +1415,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3486010</v>
+        <v>3535410</v>
       </c>
       <c r="D33">
-        <v>16746</v>
+        <v>12712</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1638.282258980542</v>
+        <v>1638.698967036647</v>
       </c>
       <c r="G33">
         <v>46</v>
@@ -1456,7 +1456,7 @@
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1627.136485513242</v>
+        <v>1624.687689607503</v>
       </c>
       <c r="G34">
         <v>43</v>
@@ -1467,22 +1467,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3535316</v>
+        <v>3185256</v>
       </c>
       <c r="D35">
-        <v>10007</v>
+        <v>5201</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1615.535946530123</v>
+        <v>1609.331372910208</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -1499,16 +1499,16 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>3185256</v>
+        <v>3535316</v>
       </c>
       <c r="D36">
-        <v>5201</v>
+        <v>10007</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1600.260567787211</v>
+        <v>1597.89622785821</v>
       </c>
       <c r="G36">
         <v>37</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3506154</v>
+        <v>3486239</v>
       </c>
       <c r="D37">
-        <v>13508</v>
+        <v>7809</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1594.073018325961</v>
+        <v>1570.324989558897</v>
       </c>
       <c r="G37">
         <v>34</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -1560,7 +1560,7 @@
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1579.260665183534</v>
+        <v>1566.351635322419</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -1571,22 +1571,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3486239</v>
+        <v>3515221</v>
       </c>
       <c r="D39">
-        <v>7809</v>
+        <v>10716</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1561.324551835571</v>
+        <v>1552.93409745255</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3515221</v>
+        <v>3505809</v>
       </c>
       <c r="D40">
-        <v>10716</v>
+        <v>4518</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1548.607494119714</v>
+        <v>1547.062992999171</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -1623,22 +1623,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3505809</v>
+        <v>3506166</v>
       </c>
       <c r="D41">
-        <v>4518</v>
+        <v>4946</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1542.87561133773</v>
+        <v>1542.186911120054</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3506166</v>
+        <v>3505800</v>
       </c>
       <c r="D42">
-        <v>4946</v>
+        <v>4816</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1528.320162859418</v>
+        <v>1528.237168232999</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -1675,22 +1675,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3505800</v>
+        <v>3205460</v>
       </c>
       <c r="D43">
-        <v>4816</v>
+        <v>4757</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1516.54748378703</v>
+        <v>1524.751084350644</v>
       </c>
       <c r="G43">
         <v>22</v>
@@ -1707,16 +1707,16 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3205460</v>
+        <v>3506008</v>
       </c>
       <c r="D44">
-        <v>4757</v>
+        <v>2750</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1512.382745482887</v>
+        <v>1514.141522489021</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3055067</v>
+        <v>3485933</v>
       </c>
       <c r="D45">
-        <v>6614</v>
+        <v>7690</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1506.6687805478</v>
+        <v>1513.157705945654</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3506008</v>
+        <v>3055067</v>
       </c>
       <c r="D46">
-        <v>2750</v>
+        <v>6614</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1503.69438028113</v>
+        <v>1506.908570052438</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1779,22 +1779,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3485933</v>
+        <v>3155314</v>
       </c>
       <c r="D47">
-        <v>7690</v>
+        <v>1975</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1500.907657811902</v>
+        <v>1475.656214761659</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1805,22 +1805,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3155314</v>
+        <v>3506079</v>
       </c>
       <c r="D48">
-        <v>1975</v>
+        <v>1793</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1480.031557404967</v>
+        <v>1429.185629816799</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3506079</v>
+        <v>3485862</v>
       </c>
       <c r="D49">
-        <v>1793</v>
+        <v>1015</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1432.488260185725</v>
+        <v>1427.051466760618</v>
       </c>
       <c r="G49">
         <v>13</v>
@@ -1872,7 +1872,7 @@
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1424.481444102681</v>
+        <v>1425.259461908035</v>
       </c>
       <c r="G50">
         <v>12</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3195219</v>
+        <v>3185579</v>
       </c>
       <c r="D51">
-        <v>965</v>
+        <v>622</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1418.413824702284</v>
+        <v>1417.597157224902</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3485862</v>
+        <v>3195219</v>
       </c>
       <c r="D52">
-        <v>1015</v>
+        <v>965</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1416.946282805947</v>
+        <v>1397.795185792877</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3295322</v>
+        <v>3486314</v>
       </c>
       <c r="D53">
-        <v>429</v>
+        <v>730</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1399.026819754084</v>
+        <v>1395.430992153502</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -1967,16 +1967,16 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3185579</v>
+        <v>3295322</v>
       </c>
       <c r="D54">
-        <v>622</v>
+        <v>429</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1397.062595910176</v>
+        <v>1392.012825464848</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -1987,22 +1987,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3486314</v>
+        <v>3295157</v>
       </c>
       <c r="D55">
-        <v>730</v>
+        <v>2630</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1392.015976175154</v>
+        <v>1381.008757081246</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -2013,22 +2013,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3295157</v>
+        <v>3486563</v>
       </c>
       <c r="D56">
-        <v>2630</v>
+        <v>540</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1382.276047241759</v>
+        <v>1365.535745378905</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
@@ -2054,7 +2054,7 @@
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1364.105987168586</v>
+        <v>1361.128786957923</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3486563</v>
+        <v>3205407</v>
       </c>
       <c r="D58">
-        <v>540</v>
+        <v>328</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1359.045831376587</v>
+        <v>1348.170535823182</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -2106,7 +2106,7 @@
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1353.323400615119</v>
+        <v>1342.44583317562</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -2132,7 +2132,7 @@
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1347.478396827793</v>
+        <v>1341.769477702704</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3205407</v>
+        <v>3535562</v>
       </c>
       <c r="D61">
-        <v>328</v>
+        <v>2809</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1339.96624374647</v>
+        <v>1336.812461056414</v>
       </c>
       <c r="G61">
         <v>1</v>
